--- a/Transformdas_o.xlsx
+++ b/Transformdas_o.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C57"/>
+  <dimension ref="A1:E57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,7 +441,17 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Frecuencia Maxima alcanzada</t>
+          <t>Frecuencia del primer armonico</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Frecuencia del segundo armonico</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Frecuencia tercer armonico</t>
         </is>
       </c>
     </row>
@@ -455,7 +465,13 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>378.3955184441393</v>
+        <v>379.2410950216681</v>
+      </c>
+      <c r="D2" t="n">
+        <v>189.8319416552158</v>
+      </c>
+      <c r="E2" t="n">
+        <v>561.0400591903608</v>
       </c>
     </row>
     <row r="3">
@@ -468,7 +484,13 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>385.4226292692229</v>
+        <v>385.4226292692238</v>
+      </c>
+      <c r="D3" t="n">
+        <v>193.0929211982448</v>
+      </c>
+      <c r="E3" t="n">
+        <v>576.9891242129361</v>
       </c>
     </row>
     <row r="4">
@@ -483,6 +505,12 @@
       <c r="C4" t="n">
         <v>407.7669902912621</v>
       </c>
+      <c r="D4" t="n">
+        <v>135.0397175639891</v>
+      </c>
+      <c r="E4" t="n">
+        <v>270.0794351279783</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -494,7 +522,13 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>363.4870109867543</v>
+        <v>362.6655714139029</v>
+      </c>
+      <c r="D5" t="n">
+        <v>181.9488653865901</v>
+      </c>
+      <c r="E5" t="n">
+        <v>543.3822774412156</v>
       </c>
     </row>
     <row r="6">
@@ -507,7 +541,13 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>358.9624467673243</v>
+        <v>359.5818815331013</v>
+      </c>
+      <c r="D6" t="n">
+        <v>180.5652342237709</v>
+      </c>
+      <c r="E6" t="n">
+        <v>715.137437088657</v>
       </c>
     </row>
     <row r="7">
@@ -520,7 +560,13 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>386.0328144720233</v>
+        <v>385.3596970971812</v>
+      </c>
+      <c r="D7" t="n">
+        <v>579.8906184265884</v>
+      </c>
+      <c r="E7" t="n">
+        <v>753.5549011358853</v>
       </c>
     </row>
     <row r="8">
@@ -533,7 +579,13 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>373.312152501986</v>
+        <v>373.3121525019851</v>
+      </c>
+      <c r="D8" t="n">
+        <v>189.0389197776017</v>
+      </c>
+      <c r="E8" t="n">
+        <v>763.3042096902304</v>
       </c>
     </row>
     <row r="9">
@@ -546,7 +598,13 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>457.4100046750818</v>
+        <v>458.1580177653113</v>
+      </c>
+      <c r="D9" t="n">
+        <v>305.5633473585785</v>
+      </c>
+      <c r="E9" t="n">
+        <v>911.4539504441327</v>
       </c>
     </row>
     <row r="10">
@@ -559,7 +617,13 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>403.6218761318369</v>
+        <v>403.0423759507421</v>
+      </c>
+      <c r="D10" t="n">
+        <v>204.853314016661</v>
+      </c>
+      <c r="E10" t="n">
+        <v>807.5335023542202</v>
       </c>
     </row>
     <row r="11">
@@ -572,7 +636,13 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>282.213772708069</v>
+        <v>283.3403745951273</v>
+      </c>
+      <c r="D11" t="n">
+        <v>567.2440501337842</v>
+      </c>
+      <c r="E11" t="n">
+        <v>848.8945218983245</v>
       </c>
     </row>
     <row r="12">
@@ -585,7 +655,13 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>380.3876852907642</v>
+        <v>378.5632839224627</v>
+      </c>
+      <c r="D12" t="n">
+        <v>568.3010262257694</v>
+      </c>
+      <c r="E12" t="n">
+        <v>190.6499429874575</v>
       </c>
     </row>
     <row r="13">
@@ -600,6 +676,12 @@
       <c r="C13" t="n">
         <v>489.8537045776311</v>
       </c>
+      <c r="D13" t="n">
+        <v>316.1868806040584</v>
+      </c>
+      <c r="E13" t="n">
+        <v>654.0821142048135</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -611,7 +693,13 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>184.2077144994123</v>
+        <v>185.062506678064</v>
+      </c>
+      <c r="D14" t="n">
+        <v>368.8428250881507</v>
+      </c>
+      <c r="E14" t="n">
+        <v>554.3327278555398</v>
       </c>
     </row>
     <row r="15">
@@ -626,6 +714,12 @@
       <c r="C15" t="n">
         <v>165.4900673124284</v>
       </c>
+      <c r="D15" t="n">
+        <v>330.3234280085371</v>
+      </c>
+      <c r="E15" t="n">
+        <v>495.8134953209656</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -639,6 +733,12 @@
       <c r="C16" t="n">
         <v>364.4405130473242</v>
       </c>
+      <c r="D16" t="n">
+        <v>547.2504791390238</v>
+      </c>
+      <c r="E16" t="n">
+        <v>182.8099660916996</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -650,7 +750,13 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>397.9698254884242</v>
+        <v>398.5260376833758</v>
+      </c>
+      <c r="D17" t="n">
+        <v>198.8458596954742</v>
+      </c>
+      <c r="E17" t="n">
+        <v>597.6500034763258</v>
       </c>
     </row>
     <row r="18">
@@ -663,7 +769,13 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>499.1539763113365</v>
+        <v>499.1539763113369</v>
+      </c>
+      <c r="D18" t="n">
+        <v>332.4873096446699</v>
+      </c>
+      <c r="E18" t="n">
+        <v>668.3587140439931</v>
       </c>
     </row>
     <row r="19">
@@ -678,6 +790,12 @@
       <c r="C19" t="n">
         <v>492.3076923076924</v>
       </c>
+      <c r="D19" t="n">
+        <v>327.9720279720277</v>
+      </c>
+      <c r="E19" t="n">
+        <v>164.3356643356638</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -689,7 +807,13 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>358.856024054262</v>
+        <v>358.2966226138033</v>
+      </c>
+      <c r="D20" t="n">
+        <v>178.7287602265574</v>
+      </c>
+      <c r="E20" t="n">
+        <v>537.8644850010487</v>
       </c>
     </row>
     <row r="21">
@@ -702,7 +826,13 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>489.6170301575708</v>
+        <v>490.451841803193</v>
+      </c>
+      <c r="D21" t="n">
+        <v>317.6458311593447</v>
+      </c>
+      <c r="E21" t="n">
+        <v>652.4053010539501</v>
       </c>
     </row>
     <row r="22">
@@ -715,7 +845,13 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>497.111136286394</v>
+        <v>498.0174464710544</v>
+      </c>
+      <c r="D22" t="n">
+        <v>166.3079188852389</v>
+      </c>
+      <c r="E22" t="n">
+        <v>332.1626826781467</v>
       </c>
     </row>
     <row r="23">
@@ -728,7 +864,13 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>429.411764705882</v>
+        <v>429.4117647058829</v>
+      </c>
+      <c r="D23" t="n">
+        <v>644.1176470588234</v>
+      </c>
+      <c r="E23" t="n">
+        <v>216.9117647058829</v>
       </c>
     </row>
     <row r="24">
@@ -741,7 +883,13 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>444.7230929989546</v>
+        <v>444.7230929989551</v>
+      </c>
+      <c r="D24" t="n">
+        <v>703.8662486938347</v>
+      </c>
+      <c r="E24" t="n">
+        <v>563.8453500522464</v>
       </c>
     </row>
     <row r="25">
@@ -754,7 +902,13 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>465.055731836303</v>
+        <v>465.7066145960462</v>
+      </c>
+      <c r="D25" t="n">
+        <v>310.1456350174922</v>
+      </c>
+      <c r="E25" t="n">
+        <v>155.2355381986818</v>
       </c>
     </row>
     <row r="26">
@@ -767,7 +921,13 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>485.439320084989</v>
+        <v>485.43932008499</v>
+      </c>
+      <c r="D26" t="n">
+        <v>808.8988876390449</v>
+      </c>
+      <c r="E26" t="n">
+        <v>642.9196350456195</v>
       </c>
     </row>
     <row r="27">
@@ -780,7 +940,13 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>466.6156592705943</v>
+        <v>467.0237184391735</v>
+      </c>
+      <c r="D27" t="n">
+        <v>310.328997704667</v>
+      </c>
+      <c r="E27" t="n">
+        <v>155.2665136444784</v>
       </c>
     </row>
     <row r="28">
@@ -793,7 +959,13 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>600.2917578409915</v>
+        <v>600.2917578409924</v>
+      </c>
+      <c r="D28" t="n">
+        <v>399.7082421590085</v>
+      </c>
+      <c r="E28" t="n">
+        <v>200.583515681984</v>
       </c>
     </row>
     <row r="29">
@@ -806,7 +978,13 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>521.5570821066408</v>
+        <v>522.0804710500488</v>
+      </c>
+      <c r="D29" t="n">
+        <v>695.845600261694</v>
+      </c>
+      <c r="E29" t="n">
+        <v>869.0873405299317</v>
       </c>
     </row>
     <row r="30">
@@ -819,7 +997,13 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>483.3603582734922</v>
+        <v>483.9780711914136</v>
+      </c>
+      <c r="D30" t="n">
+        <v>645.2011427688985</v>
+      </c>
+      <c r="E30" t="n">
+        <v>806.4242143463825</v>
       </c>
     </row>
     <row r="31">
@@ -832,7 +1016,13 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>833.6194914561361</v>
+        <v>834.2735671653991</v>
+      </c>
+      <c r="D31" t="n">
+        <v>555.6373150192139</v>
+      </c>
+      <c r="E31" t="n">
+        <v>694.301365383043</v>
       </c>
     </row>
     <row r="32">
@@ -845,7 +1035,13 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>472.292403570827</v>
+        <v>472.2924035708274</v>
+      </c>
+      <c r="D32" t="n">
+        <v>625.9053393970016</v>
+      </c>
+      <c r="E32" t="n">
+        <v>318.005726798046</v>
       </c>
     </row>
     <row r="33">
@@ -858,7 +1054,13 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>486.7854947756609</v>
+        <v>486.7854947756605</v>
+      </c>
+      <c r="D33" t="n">
+        <v>246.6707641876665</v>
+      </c>
+      <c r="E33" t="n">
+        <v>732.6367547633681</v>
       </c>
     </row>
     <row r="34">
@@ -871,7 +1073,13 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>523.7919586868315</v>
+        <v>524.7756055576046</v>
+      </c>
+      <c r="D34" t="n">
+        <v>263.1255379318818</v>
+      </c>
+      <c r="E34" t="n">
+        <v>1054.961268904463</v>
       </c>
     </row>
     <row r="35">
@@ -884,7 +1092,13 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>521.8217445519863</v>
+        <v>522.2967757259066</v>
+      </c>
+      <c r="D35" t="n">
+        <v>261.5046612433935</v>
+      </c>
+      <c r="E35" t="n">
+        <v>1044.831067038775</v>
       </c>
     </row>
     <row r="36">
@@ -897,7 +1111,13 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>584.7431871137678</v>
+        <v>583.9327322459731</v>
+      </c>
+      <c r="D36" t="n">
+        <v>293.7898895755243</v>
+      </c>
+      <c r="E36" t="n">
+        <v>1162.597507851281</v>
       </c>
     </row>
     <row r="37">
@@ -910,7 +1130,13 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>530.0363636363636</v>
+        <v>531.1999999999998</v>
+      </c>
+      <c r="D37" t="n">
+        <v>265.8909090909092</v>
+      </c>
+      <c r="E37" t="n">
+        <v>795.3454545454542</v>
       </c>
     </row>
     <row r="38">
@@ -923,7 +1149,13 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>495.3815801273427</v>
+        <v>496.0990045735807</v>
+      </c>
+      <c r="D38" t="n">
+        <v>993.2741458165192</v>
+      </c>
+      <c r="E38" t="n">
+        <v>744.3278629719307</v>
       </c>
     </row>
     <row r="39">
@@ -936,7 +1168,13 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>500.6159152500618</v>
+        <v>500.6159152500613</v>
+      </c>
+      <c r="D39" t="n">
+        <v>255.2352796255236</v>
+      </c>
+      <c r="E39" t="n">
+        <v>747.9674796747968</v>
       </c>
     </row>
     <row r="40">
@@ -949,7 +1187,13 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>488.2090503505415</v>
+        <v>488.2090503505419</v>
+      </c>
+      <c r="D40" t="n">
+        <v>244.741873804971</v>
+      </c>
+      <c r="E40" t="n">
+        <v>739.3244104525174</v>
       </c>
     </row>
     <row r="41">
@@ -962,7 +1206,13 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>507.4080239720329</v>
+        <v>507.4080239720324</v>
+      </c>
+      <c r="D41" t="n">
+        <v>255.0357915764935</v>
+      </c>
+      <c r="E41" t="n">
+        <v>1013.484268353587</v>
       </c>
     </row>
     <row r="42">
@@ -975,7 +1225,13 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>398.9960026029567</v>
+        <v>398.2523008273683</v>
+      </c>
+      <c r="D42" t="n">
+        <v>183.3224876824397</v>
+      </c>
+      <c r="E42" t="n">
+        <v>552.1985683740822</v>
       </c>
     </row>
     <row r="43">
@@ -988,7 +1244,13 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>447.4327628361862</v>
+        <v>447.4327628361857</v>
+      </c>
+      <c r="D43" t="n">
+        <v>223.3088834555829</v>
+      </c>
+      <c r="E43" t="n">
+        <v>670.7416462917686</v>
       </c>
     </row>
     <row r="44">
@@ -1001,7 +1263,13 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>464.8049367221006</v>
+        <v>465.6416692814555</v>
+      </c>
+      <c r="D44" t="n">
+        <v>232.1932852212112</v>
+      </c>
+      <c r="E44" t="n">
+        <v>925.0078443677439</v>
       </c>
     </row>
     <row r="45">
@@ -1014,7 +1282,13 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>528.3806343906513</v>
+        <v>528.3806343906508</v>
+      </c>
+      <c r="D45" t="n">
+        <v>263.7729549248752</v>
+      </c>
+      <c r="E45" t="n">
+        <v>792.153589315526</v>
       </c>
     </row>
     <row r="46">
@@ -1027,7 +1301,13 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>463.224405173265</v>
+        <v>464.0142166057849</v>
+      </c>
+      <c r="D46" t="n">
+        <v>233.3892783098036</v>
+      </c>
+      <c r="E46" t="n">
+        <v>701.7474577944513</v>
       </c>
     </row>
     <row r="47">
@@ -1040,7 +1320,13 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>282.9085291845968</v>
+        <v>283.7912391040491</v>
+      </c>
+      <c r="D47" t="n">
+        <v>569.7892530067302</v>
+      </c>
+      <c r="E47" t="n">
+        <v>847.8428776343371</v>
       </c>
     </row>
     <row r="48">
@@ -1053,7 +1339,13 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>269.7182588542046</v>
+        <v>269.1388426160638</v>
+      </c>
+      <c r="D48" t="n">
+        <v>537.9879771130582</v>
+      </c>
+      <c r="E48" t="n">
+        <v>808.5753603244739</v>
       </c>
     </row>
     <row r="49">
@@ -1068,6 +1360,12 @@
       <c r="C49" t="n">
         <v>610.3121711680114</v>
       </c>
+      <c r="D49" t="n">
+        <v>304.4545773412838</v>
+      </c>
+      <c r="E49" t="n">
+        <v>916.8712732374606</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1079,7 +1377,13 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>557.7342047930283</v>
+        <v>557.7342047930279</v>
+      </c>
+      <c r="D50" t="n">
+        <v>279.9564270152505</v>
+      </c>
+      <c r="E50" t="n">
+        <v>1117.102396514161</v>
       </c>
     </row>
     <row r="51">
@@ -1094,6 +1398,12 @@
       <c r="C51" t="n">
         <v>171.805230703806</v>
       </c>
+      <c r="D51" t="n">
+        <v>515.4156921114181</v>
+      </c>
+      <c r="E51" t="n">
+        <v>345.3115032957685</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1105,7 +1415,13 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>439.7905759162304</v>
+        <v>440.4157224349456</v>
+      </c>
+      <c r="D52" t="n">
+        <v>293.5062905368441</v>
+      </c>
+      <c r="E52" t="n">
+        <v>587.3251543330471</v>
       </c>
     </row>
     <row r="53">
@@ -1120,6 +1436,12 @@
       <c r="C53" t="n">
         <v>447.8138222849084</v>
       </c>
+      <c r="D53" t="n">
+        <v>223.5543018335684</v>
+      </c>
+      <c r="E53" t="n">
+        <v>894.9224259520452</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -1131,7 +1453,13 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>400.6084380754141</v>
+        <v>401.2488992074295</v>
+      </c>
+      <c r="D54" t="n">
+        <v>198.2227203586581</v>
+      </c>
+      <c r="E54" t="n">
+        <v>601.0727723961254</v>
       </c>
     </row>
     <row r="55">
@@ -1144,7 +1472,13 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>408.5824316889784</v>
+        <v>408.0934042423128</v>
+      </c>
+      <c r="D55" t="n">
+        <v>204.1689589828229</v>
+      </c>
+      <c r="E55" t="n">
+        <v>818.3874319946208</v>
       </c>
     </row>
     <row r="56">
@@ -1157,7 +1491,13 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>450.7628294036058</v>
+        <v>450.7628294036067</v>
+      </c>
+      <c r="D56" t="n">
+        <v>902.2191400832176</v>
+      </c>
+      <c r="E56" t="n">
+        <v>224.6879334257974</v>
       </c>
     </row>
     <row r="57">
@@ -1171,6 +1511,12 @@
       </c>
       <c r="C57" t="n">
         <v>485.6061852278335</v>
+      </c>
+      <c r="D57" t="n">
+        <v>243.4610955749299</v>
+      </c>
+      <c r="E57" t="n">
+        <v>971.212370455667</v>
       </c>
     </row>
   </sheetData>
